--- a/data/PlanesEstudio/IND-1705 Transferencia y Comercializacion de Tecnologia.xlsx
+++ b/data/PlanesEstudio/IND-1705 Transferencia y Comercializacion de Tecnologia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alegu\Desktop\DUAL\Dual\data\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2506B5B9-43A6-4C2B-989E-B9FB5FFE0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F7EACA-2561-45C7-80C0-2201EBD70752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="307" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-465" yWindow="465" windowWidth="13395" windowHeight="12840" tabRatio="307" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
   <si>
     <t>Nombre</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Habilidades en el uso de las tecnologias de la informacion de diversas fuentes</t>
   </si>
   <si>
-    <t>Herramientas para la innovacion Tecnologica</t>
-  </si>
-  <si>
     <t>Capacidad de analisis, sintesis, organizar tiempo y planificar</t>
   </si>
   <si>
@@ -184,102 +181,42 @@
     <t>INM-1703T05CEO1A4</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferencia y Comercialización de Tecnología </t>
-  </si>
-  <si>
     <t>IND-1705</t>
   </si>
   <si>
-    <t xml:space="preserve">Conoce, analiza, interpreta y valida temas relacionados con la transferencia de tecnología y conocimiento para identificar ventajas, beneficios y oportunidades que se puedan generar. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce, analiza, comprende y utiliza modelos de vinculación y de comercialización y transferencia de tecnología para llevar a cabo de manera pertinente el proceso de transferencia y comercialización de tecnología y conocimiento, impulsando el desarrollo y crecimiento de diversos sectores de la sociedad. </t>
   </si>
   <si>
     <t xml:space="preserve">Detecta los principales elementos de los mecanismos legales y convenios que pueden ser empleados para la transferencia de tecnología. </t>
   </si>
   <si>
-    <t xml:space="preserve">Analiza, comprende e identifica los elementos del Entorno de la Innovación desde los actores clave inmersos, así como la interacción, importancia e implicaciones de estos elementos para el desempeño eficiente de un proceso de innovación tecnológica. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce, analiza y comprende los fundamentos de la innovación, desde su conceptualización hasta su tipología (clases de innovación). </t>
   </si>
   <si>
-    <t xml:space="preserve">Analiza y comprende la importancia de la innovación tecnológica,  Modela el ecosistema de innovación de su entorno económico. </t>
-  </si>
-  <si>
     <t>Conoce, analiza, comprende e identifica  los elementos necesarios para gestionar la propiedad intelectual</t>
   </si>
   <si>
-    <t>Analiza, comprende e identifica los elementos que integran la Propiedad Intelectual.</t>
-  </si>
-  <si>
-    <t>La Transferencia de tecnologia y conocimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Transferencia de Tecnología y Conocimiento, Definiciones,Objetivos, Requisitos,Las actividades. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tipos de transferencia de tecnología </t>
   </si>
   <si>
-    <t xml:space="preserve">Capital Intelectual y gestión del conocimiento,Los activos intangibles y su importancia </t>
-  </si>
-  <si>
     <t xml:space="preserve">La valoración de la tecnología </t>
   </si>
   <si>
-    <t xml:space="preserve">Comportamiento de las industrias para valuar tecnologías </t>
-  </si>
-  <si>
     <t>Conoce, analiza y comprende conceptos relacionados con la transferencia de tecnología para identificar la importancia de la gestión del conocimiento, sus ventajas y las oportunidades que se puedan generar.</t>
   </si>
   <si>
     <t xml:space="preserve">Realizar búsqueda de información a través de fuentes digitales e impresas, acerca de la transferencia de tecnología. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dividir al grupo en equipos. Cada equipo deberá diseñar un mapa mental sobre los conceptos de Transferencia de Tecnología, y plasmarlo en una presentación tipo powerpoint; posteriormente, cada equipo deberá debatir su presentación con los compañeros del aula. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medir el conocimiento adquirido sobre Transferencia de Tecnología través de un examen. </t>
-  </si>
-  <si>
-    <t>Modelos de vinculacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triple Hélice </t>
-  </si>
-  <si>
-    <t>Cuádruple Hélice</t>
-  </si>
-  <si>
     <t xml:space="preserve">TecNM </t>
   </si>
   <si>
-    <t>Quíntuple Hélice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce, analiza y comprende modelos de vinculación para extender la visión sobre la relación entre las IES como creadoras de conocimiento, la empresa, el gobierno,  el entorno social y ambiental a través de los modelos de la triple hélice, cuádruple y  quíntuple hélice. </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar búsqueda de información a través de fuentes digitales e impresas, acerca de los conceptos abordados en los Modelos de Vinculación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividir al grupo en equipos. Cada equipo deberá desarrollar un cuadro comparativo, sobre las semejanzas, diferencias, ventajas y desventajas de cada uno de los modelos de vinculación, y plasmarlo en una presentación tipo powerpoint; posteriormente, cada equipo deberá debatir su presentación con los compañeros del aula. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Desarrollar un modelo de vinculación, de acuerdo con las situaciones de su respectivo entorno. </t>
   </si>
   <si>
-    <t xml:space="preserve">Medir el conocimiento sobre Modelos de Vinculación a través de un examen. </t>
-  </si>
-  <si>
-    <t>Modelos de comercializacion y tranferencia de tecnologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lineal,Thamhain,Marquis </t>
-  </si>
-  <si>
     <t>Stage-gate de Cooper</t>
   </si>
   <si>
@@ -292,30 +229,12 @@
     <t xml:space="preserve">Conoce, analiza y comprende mecanismos legales necesarios en la transferencia de tecnología  para desarrollar actividades de innovación y de transferencia de una tecnología. </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar búsqueda de información a través de fuentes digitales e impresas, acerca de los conceptos de Mecanismos Legales de Transferencia de Tecnología. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividir al grupo en equipos. Cada equipo deberá desarrollar una propuesta sobre el mecanismo legal y convenios de transferencia de tecnología que mejor se adapten a su respectivo proyecto, y plasmarlo en una presentación tipo powerpoint; posteriormente, cada integrante del equipo deberá debatir su presentación con los compañeros del aula. </t>
-  </si>
-  <si>
     <t>Medir el conocimiento adquirido del tema 4 a través de un examen.</t>
   </si>
   <si>
     <t xml:space="preserve">Formar equipos de cinco estudiantes, elegir una tecnología (existente de preferencia) y desarrollar un convenio para transferirla a una organización del sector privado o público considerando los aspectos legales pertinentes a cada sector. Posteriormente analizar en plenaria dos de los convenios generados (uno para cada sector). </t>
   </si>
   <si>
-    <t>Mecanismos Legales para la tranferencia tecnologica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El contrato de asistencia tecnológica, El joint venture o colaboración empresarial </t>
-  </si>
-  <si>
-    <t>La asociación en participación,Contrato de colaboración empresarial,Constitución de una persona moral, en las modalidades de spin-off o start-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consorcios, Asociaciones estratégicas, Alianzas tecnológicas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Convenio de desarrollo tecnológico, Convenio de licenciamiento de tecnología , Convenio de transferencia de tecnología, Convenio de confidencialidad </t>
   </si>
   <si>
@@ -470,13 +389,124 @@
   </si>
   <si>
     <t>IND-1705T04CEO1A4</t>
+  </si>
+  <si>
+    <t>TEMA EXTRA NO VALIDA</t>
+  </si>
+  <si>
+    <t>Transferencia y comercialización de tecnología</t>
+  </si>
+  <si>
+    <t>Conoce, analiza, interpreta y válida temas relacionados con la transferencia de tecnología y conocimiento para identificar ventajas, beneficios y oportunidades que se puedan generar.</t>
+  </si>
+  <si>
+    <t>Analiza, comprende e identifica los elementos del entorno de la innovación desde los actores clave inmersos, así como la interacción, importancia e implicaciones de estos elementos para el desempeño eficiente de un proceso de innovación tecnológica.</t>
+  </si>
+  <si>
+    <t>Analiza y comprende la importancia de la innovación tecnológica, modela el ecosistema de innovación en su entorno económico.</t>
+  </si>
+  <si>
+    <t>Analiza, comprende e identifica los elementos que integran la propiedad intelectual.</t>
+  </si>
+  <si>
+    <t>La transferencia de tecnologia y conocimiento</t>
+  </si>
+  <si>
+    <t>La transferencia de tecnología y conocimiento, definiciones, Objetivos, requisitos, las actividades.</t>
+  </si>
+  <si>
+    <t>Capital intelectual y gestión del conocimiento, los activos intangibles y su importancia</t>
+  </si>
+  <si>
+    <t>Comportamiento de las industrias para evaluar tecnologías</t>
+  </si>
+  <si>
+    <t>Capacidad de análisis, síntesis, organizar tiempo y planificar</t>
+  </si>
+  <si>
+    <t>Habilidades para la solución de problemas</t>
+  </si>
+  <si>
+    <t>Habilidad para buscar, procesar y analizar información de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Habilidades en el uso de las tecnologías de la información de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Compromiso ético, preservación del ambiente e identificar plantear y resolver problemas, liderazgo y creatividad</t>
+  </si>
+  <si>
+    <t>Dividir al grupo en equipos. Cada equipo deberá diseñar un mapa mental sobre los conceptos de transferencia de Tecnología, y plasmarlo en una presentación tipo PowerPoint; posteriormente, cada equipo deberá debatir su presentación con los compañeros del aula.</t>
+  </si>
+  <si>
+    <t>Medir el conocimiento adquirido sobre transferencia de tecnología a a través de un examen.</t>
+  </si>
+  <si>
+    <t>Modelos de vinculación</t>
+  </si>
+  <si>
+    <t>Triple hélice</t>
+  </si>
+  <si>
+    <t>Cuádruple hélice</t>
+  </si>
+  <si>
+    <t>Quíntuple hélice</t>
+  </si>
+  <si>
+    <t>Realizar búsqueda de información a través de fuentes digitales e impresas, acerca de los conceptos abordados en los modelos de vinculación.</t>
+  </si>
+  <si>
+    <t>Dividir al grupo en equipos. Cada equipo deberá desarrollar un cuadro comparativo, sobre las semejanzas, las diferencias, ventajas y desventajas de cada uno de los modelos de vinculación, y plasmarlo en una presentación tipo PowerPoint; posteriormente, cada equipo deberá debatir su presentación con los compañeros del aula.</t>
+  </si>
+  <si>
+    <t>Medir el conocimiento sobre modelos de vinculación a través de un examen.</t>
+  </si>
+  <si>
+    <t>Modelos de comercialización y transferencia de tecnología</t>
+  </si>
+  <si>
+    <t>Lineal, Thamhain, Marquis</t>
+  </si>
+  <si>
+    <t>Realizar búsqueda de información a través de fuentes digitales e impresas, acerca de los conceptos de mecanismos legales de transferencia de tecnología.</t>
+  </si>
+  <si>
+    <t>Dividir al grupo en equipos. Cada equipo deberá desarrollar una propuesta sobre el mecanismo legal y convenios de transferencia de tecnología que mejor se adapten a su respectivo proyecto, y plasmarlo en una presentación tipo PowerPoint; posteriormente, cada integrante del equipo deberá debatir su presentación con los compañeros del aula.</t>
+  </si>
+  <si>
+    <t>Mecanismos legales para la transferencia tecnológica</t>
+  </si>
+  <si>
+    <t>El contrato de asistencia tecnológica, el joint venture o colaboración empresarial</t>
+  </si>
+  <si>
+    <t>La asociación en participación, Contrato de colaboración empresarial, Constitución de una persona moral, en las modalidades de spin-off o start-up</t>
+  </si>
+  <si>
+    <t>Consorcios, asociaciones estratégicas, alianzas tecnológicas</t>
+  </si>
+  <si>
+    <t>Realizar búsqueda de información a través de fuentes digitales e impresas, acerca de los conceptos de mecanismos legales de tecnología.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar un modelo de comercialización, de acuerdo con las situaciones de su respectivo entorno. </t>
+  </si>
+  <si>
+    <t>IND-1705T03CEO1A5</t>
+  </si>
+  <si>
+    <t>Acudir a una oficina de transferencia de tecnología o unidad de vinculación y transferencia de conocimiento para investigar el modelo de comercialización que utilizan.</t>
+  </si>
+  <si>
+    <t>Medir el conocimiento adquirido sobre el modelo de comercialización a través de un examen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,9 +536,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -658,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -738,6 +783,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1084,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1158,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1169,7 +1266,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1180,7 +1277,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1220,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1231,7 +1328,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1242,7 +1339,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="16" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1253,7 +1350,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="16" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1264,7 +1361,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1551,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -1680,10 +1777,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -1698,10 +1795,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -1716,10 +1813,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -1734,10 +1831,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -1752,10 +1849,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
@@ -1870,10 +1967,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1955,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -1973,10 +2070,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -1991,10 +2088,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -2009,10 +2106,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -2027,10 +2124,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -2131,10 +2228,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -2158,10 +2255,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="E38" s="12">
         <v>1</v>
@@ -2185,10 +2282,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -2592,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -2721,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -2739,10 +2836,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -2757,10 +2854,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -2775,10 +2872,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -2907,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2992,10 +3089,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -3010,10 +3107,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -3028,10 +3125,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -3046,10 +3143,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -3064,10 +3161,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -3168,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -3195,10 +3292,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -3222,10 +3319,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -3249,10 +3346,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -3639,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -3768,10 +3865,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -3786,10 +3883,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -3804,10 +3901,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -3822,10 +3919,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -3954,10 +4051,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4039,10 +4136,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -4057,10 +4154,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -4075,10 +4172,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -4093,10 +4190,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -4111,10 +4208,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -4215,10 +4312,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -4242,10 +4339,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -4269,10 +4366,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -4292,14 +4389,14 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -4322,12 +4419,24 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="8">
+        <v>4</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -4686,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4719,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -4815,10 +4924,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -4833,10 +4942,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -4851,10 +4960,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -4869,10 +4978,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -5001,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5086,10 +5195,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -5104,10 +5213,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -5122,10 +5231,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -5140,10 +5249,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -5158,10 +5267,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -5262,10 +5371,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -5289,10 +5398,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -5316,10 +5425,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E39" s="12">
         <v>0.5</v>
@@ -5343,10 +5452,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -5734,7 +5843,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,800 +5856,800 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="36">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="37">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="C20" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="C26" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="24" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="C37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="48">
         <v>0.5</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="38">
         <v>4</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="48">
         <v>0.5</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="40">
         <v>4</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="48">
         <v>0.5</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="40">
         <v>4</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="48">
         <v>0.5</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="40">
         <v>4</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="1"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="1"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="1"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="1"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6935,18 +7044,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6968,6 +7077,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194C63B9-6D56-41B8-852C-30E254E0B949}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6484B29-A119-444E-B32B-DDD7B740B41D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -6981,12 +7098,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194C63B9-6D56-41B8-852C-30E254E0B949}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>